--- a/results/CIS_v8 Result Sheet ransomware TTPs.xlsx
+++ b/results/CIS_v8 Result Sheet ransomware TTPs.xlsx
@@ -18,13 +18,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6037" uniqueCount="590">
   <si>
+    <t>Control Name</t>
+  </si>
+  <si>
     <t>ttp_weight</t>
   </si>
   <si>
     <t>Control ID</t>
-  </si>
-  <si>
-    <t>Control Name</t>
   </si>
   <si>
     <t>Establish and Maintain a Secure Configuration Process</t>
@@ -2270,20 +2270,20 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>4.1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2">
@@ -2294,7 +2294,7 @@
       <c r="A3" s="1">
         <v>18.3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
@@ -2305,7 +2305,7 @@
       <c r="A4" s="1">
         <v>18.5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4">
@@ -2316,7 +2316,7 @@
       <c r="A5" s="1">
         <v>6.1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
@@ -2327,7 +2327,7 @@
       <c r="A6" s="1">
         <v>6.2</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6">
@@ -2338,7 +2338,7 @@
       <c r="A7" s="1">
         <v>5.3</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7">
@@ -2349,7 +2349,7 @@
       <c r="A8" s="1">
         <v>4.7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8">
@@ -2360,7 +2360,7 @@
       <c r="A9" s="1">
         <v>6.8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9">
@@ -2371,7 +2371,7 @@
       <c r="A10" s="1">
         <v>5.4</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10">
@@ -2382,7 +2382,7 @@
       <c r="A11" s="1">
         <v>4.4</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11">
@@ -2393,7 +2393,7 @@
       <c r="A12" s="1">
         <v>2.5</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12">
@@ -2404,7 +2404,7 @@
       <c r="A13" s="1">
         <v>4.8</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13">
@@ -2415,7 +2415,7 @@
       <c r="A14" s="1">
         <v>13.8</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14">
@@ -2426,7 +2426,7 @@
       <c r="A15" s="1">
         <v>12.2</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15">
@@ -2437,7 +2437,7 @@
       <c r="A16" s="1">
         <v>13.3</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16">
@@ -2448,7 +2448,7 @@
       <c r="A17" s="1">
         <v>5.2</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17">
@@ -2459,7 +2459,7 @@
       <c r="A18" s="1">
         <v>3.12</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18">
@@ -2470,7 +2470,7 @@
       <c r="A19" s="1">
         <v>2.3</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>20</v>
       </c>
       <c r="C19">
@@ -2481,7 +2481,7 @@
       <c r="A20" s="1">
         <v>12.8</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>21</v>
       </c>
       <c r="C20">
@@ -2492,7 +2492,7 @@
       <c r="A21" s="1">
         <v>4.2</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21">
@@ -2503,7 +2503,7 @@
       <c r="A22" s="1">
         <v>7.7</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>23</v>
       </c>
       <c r="C22">
@@ -2514,7 +2514,7 @@
       <c r="A23" s="1">
         <v>7.6</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>24</v>
       </c>
       <c r="C23">
@@ -2525,7 +2525,7 @@
       <c r="A24" s="1">
         <v>7.1</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>25</v>
       </c>
       <c r="C24">
@@ -2536,7 +2536,7 @@
       <c r="A25" s="1">
         <v>7.2</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25">
@@ -2547,7 +2547,7 @@
       <c r="A26" s="1">
         <v>6.4</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>27</v>
       </c>
       <c r="C26">
@@ -2558,7 +2558,7 @@
       <c r="A27" s="1">
         <v>6.5</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>28</v>
       </c>
       <c r="C27">
@@ -2569,7 +2569,7 @@
       <c r="A28" s="1">
         <v>7.3</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>29</v>
       </c>
       <c r="C28">
@@ -2580,7 +2580,7 @@
       <c r="A29" s="1">
         <v>7.5</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>30</v>
       </c>
       <c r="C29">
@@ -2591,7 +2591,7 @@
       <c r="A30" s="1">
         <v>7.4</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>31</v>
       </c>
       <c r="C30">
@@ -2602,7 +2602,7 @@
       <c r="A31" s="1">
         <v>5.5</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>32</v>
       </c>
       <c r="C31">
@@ -2613,7 +2613,7 @@
       <c r="A32" s="1">
         <v>18.2</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>33</v>
       </c>
       <c r="C32">
@@ -2624,7 +2624,7 @@
       <c r="A33" s="1">
         <v>16.1</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>34</v>
       </c>
       <c r="C33">
@@ -2635,7 +2635,7 @@
       <c r="A34" s="1">
         <v>9.300000000000001</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>35</v>
       </c>
       <c r="C34">
@@ -2646,7 +2646,7 @@
       <c r="A35" s="1">
         <v>11.3</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>36</v>
       </c>
       <c r="C35">
@@ -2657,7 +2657,7 @@
       <c r="A36" s="1">
         <v>3.3</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>37</v>
       </c>
       <c r="C36">
@@ -2668,7 +2668,7 @@
       <c r="A37" s="1">
         <v>16.8</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>38</v>
       </c>
       <c r="C37">
@@ -2679,7 +2679,7 @@
       <c r="A38" s="1">
         <v>4.5</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>39</v>
       </c>
       <c r="C38">
@@ -2690,7 +2690,7 @@
       <c r="A39" s="1">
         <v>2.7</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>40</v>
       </c>
       <c r="C39">
@@ -2701,7 +2701,7 @@
       <c r="A40" s="1">
         <v>13.4</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>41</v>
       </c>
       <c r="C40">
@@ -2712,7 +2712,7 @@
       <c r="A41" s="1">
         <v>10.5</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>42</v>
       </c>
       <c r="C41">
@@ -2723,7 +2723,7 @@
       <c r="A42" s="1">
         <v>16.1</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>43</v>
       </c>
       <c r="C42">
@@ -2734,7 +2734,7 @@
       <c r="A43" s="1">
         <v>5.1</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>44</v>
       </c>
       <c r="C43">
@@ -2745,7 +2745,7 @@
       <c r="A44" s="1">
         <v>11.4</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>45</v>
       </c>
       <c r="C44">
@@ -2756,7 +2756,7 @@
       <c r="A45" s="1">
         <v>16.9</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>46</v>
       </c>
       <c r="C45">
@@ -2767,7 +2767,7 @@
       <c r="A46" s="1">
         <v>13.1</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>47</v>
       </c>
       <c r="C46">
@@ -2778,7 +2778,7 @@
       <c r="A47" s="1">
         <v>9.6</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>48</v>
       </c>
       <c r="C47">
@@ -2789,7 +2789,7 @@
       <c r="A48" s="1">
         <v>2.6</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>49</v>
       </c>
       <c r="C48">
@@ -2800,7 +2800,7 @@
       <c r="A49" s="1">
         <v>3.11</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>50</v>
       </c>
       <c r="C49">
@@ -2811,7 +2811,7 @@
       <c r="A50" s="1">
         <v>6.3</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>51</v>
       </c>
       <c r="C50">
@@ -2822,7 +2822,7 @@
       <c r="A51" s="1">
         <v>13.2</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>52</v>
       </c>
       <c r="C51">
@@ -2833,7 +2833,7 @@
       <c r="A52" s="1">
         <v>14.9</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>53</v>
       </c>
       <c r="C52">
@@ -2844,7 +2844,7 @@
       <c r="A53" s="1">
         <v>16.13</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>54</v>
       </c>
       <c r="C53">
@@ -2855,7 +2855,7 @@
       <c r="A54" s="1">
         <v>13.5</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>55</v>
       </c>
       <c r="C54">
@@ -2866,7 +2866,7 @@
       <c r="A55" s="1">
         <v>13.7</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>56</v>
       </c>
       <c r="C55">
@@ -2877,7 +2877,7 @@
       <c r="A56" s="1">
         <v>14.1</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>57</v>
       </c>
       <c r="C56">
@@ -2888,7 +2888,7 @@
       <c r="A57" s="1">
         <v>11.1</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>58</v>
       </c>
       <c r="C57">
@@ -2899,7 +2899,7 @@
       <c r="A58" s="1">
         <v>11.2</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>59</v>
       </c>
       <c r="C58">
@@ -2910,7 +2910,7 @@
       <c r="A59" s="1">
         <v>11.5</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>60</v>
       </c>
       <c r="C59">
@@ -2921,7 +2921,7 @@
       <c r="A60" s="1">
         <v>12.7</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>61</v>
       </c>
       <c r="C60">
@@ -2932,7 +2932,7 @@
       <c r="A61" s="1">
         <v>14.6</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>62</v>
       </c>
       <c r="C61">
@@ -2943,7 +2943,7 @@
       <c r="A62" s="1">
         <v>14.2</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>63</v>
       </c>
       <c r="C62">
@@ -2954,7 +2954,7 @@
       <c r="A63" s="1">
         <v>18.1</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>64</v>
       </c>
       <c r="C63">
@@ -2965,7 +2965,7 @@
       <c r="A64" s="1">
         <v>10.2</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>65</v>
       </c>
       <c r="C64">
@@ -2976,7 +2976,7 @@
       <c r="A65" s="1">
         <v>15.7</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>66</v>
       </c>
       <c r="C65">
@@ -2987,7 +2987,7 @@
       <c r="A66" s="1">
         <v>10.7</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>67</v>
       </c>
       <c r="C66">
@@ -2998,7 +2998,7 @@
       <c r="A67" s="1">
         <v>10.1</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
         <v>68</v>
       </c>
       <c r="C67">
@@ -3009,7 +3009,7 @@
       <c r="A68" s="1">
         <v>3.1</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>69</v>
       </c>
       <c r="C68">
@@ -3017,8 +3017,10 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1" t="s">
+      <c r="A69" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="B69" t="s">
         <v>70</v>
       </c>
       <c r="C69">
@@ -3029,7 +3031,7 @@
       <c r="A70" s="1">
         <v>14.3</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" t="s">
         <v>71</v>
       </c>
       <c r="C70">
@@ -3040,7 +3042,7 @@
       <c r="A71" s="1">
         <v>16.11</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>72</v>
       </c>
       <c r="C71">
@@ -3051,7 +3053,7 @@
       <c r="A72" s="1">
         <v>16.12</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
         <v>73</v>
       </c>
       <c r="C72">
@@ -3062,7 +3064,7 @@
       <c r="A73" s="1">
         <v>16.2</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
         <v>74</v>
       </c>
       <c r="C73">
@@ -3073,7 +3075,7 @@
       <c r="A74" s="1">
         <v>16.3</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
         <v>75</v>
       </c>
       <c r="C74">
@@ -3084,7 +3086,7 @@
       <c r="A75" s="1">
         <v>14.4</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>76</v>
       </c>
       <c r="C75">
@@ -3095,7 +3097,7 @@
       <c r="A76" s="1">
         <v>16.5</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" t="s">
         <v>77</v>
       </c>
       <c r="C76">
@@ -3106,7 +3108,7 @@
       <c r="A77" s="1">
         <v>16.4</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s">
         <v>78</v>
       </c>
       <c r="C77">
@@ -3117,7 +3119,7 @@
       <c r="A78" s="1">
         <v>1.1</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" t="s">
         <v>79</v>
       </c>
       <c r="C78">
@@ -3128,7 +3130,7 @@
       <c r="A79" s="1">
         <v>13.9</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" t="s">
         <v>80</v>
       </c>
       <c r="C79">
@@ -3139,7 +3141,7 @@
       <c r="A80" s="1">
         <v>12.6</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" t="s">
         <v>81</v>
       </c>
       <c r="C80">
@@ -3150,7 +3152,7 @@
       <c r="A81" s="1">
         <v>1.4</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" t="s">
         <v>82</v>
       </c>
       <c r="C81">
@@ -3161,7 +3163,7 @@
       <c r="A82" s="1">
         <v>2.1</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" t="s">
         <v>83</v>
       </c>
       <c r="C82">
@@ -3172,7 +3174,7 @@
       <c r="A83" s="1">
         <v>2.2</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" t="s">
         <v>84</v>
       </c>
       <c r="C83">
@@ -3183,7 +3185,7 @@
       <c r="A84" s="1">
         <v>2.4</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" t="s">
         <v>85</v>
       </c>
       <c r="C84">
@@ -3194,7 +3196,7 @@
       <c r="A85" s="1">
         <v>3.2</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" t="s">
         <v>86</v>
       </c>
       <c r="C85">
@@ -3205,7 +3207,7 @@
       <c r="A86" s="1">
         <v>3.4</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" t="s">
         <v>87</v>
       </c>
       <c r="C86">
@@ -3216,7 +3218,7 @@
       <c r="A87" s="1">
         <v>4.1</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" t="s">
         <v>88</v>
       </c>
       <c r="C87">
@@ -3227,7 +3229,7 @@
       <c r="A88" s="1">
         <v>8.1</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" t="s">
         <v>89</v>
       </c>
       <c r="C88">
@@ -3235,8 +3237,10 @@
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1" t="s">
+      <c r="A89" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="B89" t="s">
         <v>90</v>
       </c>
       <c r="C89">
@@ -3247,7 +3251,7 @@
       <c r="A90" s="1">
         <v>8.199999999999999</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" t="s">
         <v>91</v>
       </c>
       <c r="C90">
@@ -3258,7 +3262,7 @@
       <c r="A91" s="1">
         <v>8.300000000000001</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" t="s">
         <v>92</v>
       </c>
       <c r="C91">
@@ -3269,7 +3273,7 @@
       <c r="A92" s="1">
         <v>8.9</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" t="s">
         <v>93</v>
       </c>
       <c r="C92">
@@ -3280,7 +3284,7 @@
       <c r="A93" s="1">
         <v>1.2</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" t="s">
         <v>94</v>
       </c>
       <c r="C93">
@@ -3291,7 +3295,7 @@
       <c r="A94" s="1">
         <v>9.699999999999999</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" t="s">
         <v>95</v>
       </c>
       <c r="C94">
@@ -3302,7 +3306,7 @@
       <c r="A95" s="1">
         <v>12.1</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" t="s">
         <v>96</v>
       </c>
       <c r="C95">
@@ -3313,7 +3317,7 @@
       <c r="A96" s="1">
         <v>9.1</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" t="s">
         <v>97</v>
       </c>
       <c r="C96">
@@ -3321,10 +3325,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A88:A89"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3339,10 +3339,10 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>98</v>
@@ -3351,7 +3351,7 @@
         <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>100</v>
@@ -25917,7 +25917,7 @@
         <v>500</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>100</v>
